--- a/biology/Botanique/Ariocarpus/Ariocarpus.xlsx
+++ b/biology/Botanique/Ariocarpus/Ariocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ariocarpus est un genre de la famille des cactus composé de 8 espèces.
 Le nom vient du grec ancien « aria » (une espèce de chêne) et « carpos » (=fruit) en raison de la ressemblance des fruits en forme de gland des deux genres.
@@ -516,17 +528,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste d'espèces
-Ariocarpus agavoides
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariocarpus agavoides
 Ariocarpus bravoanus
 Ariocarpus fissuratus Engelm.
 Ariocarpus furfuraceus Watts, espèce plus robuste pouvant atteindre 25 cm de diamètre.
 Ariocarpus retusus (espèce type)
 Ariocarpus scaphirostris 
 Ariocarpus trigonus  Web.
-Ariocarpus kotschoubeyanus 
-Synonymes
-Anhalonium Lem.
+Ariocarpus kotschoubeyanus </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ariocarpus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ariocarpus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anhalonium Lem.
 Neogomesia Castañeda
 Neogomezia Buxb. (orth. var.)
 Roseocactus A.Berger
@@ -534,68 +585,71 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Ariocarpus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ariocarpus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante se présente comme une espèce semi enterrée qui se prolonge par une grosse racine pivotante.
 La partie aérienne est de forme aplatie avec un diamètre de l'ordre de 12 cm de diamètre et des tubercules triangulaires imbriqués avec des rides transversales.
 La plante est totalement sans épine et de couleur grise. Elle se confond dans son environnement.
 Dans la nature, on peut la piétiner sans la remarquer et sans lui faire le moindre mal
-[1]
 Le centre de la plante contient une structure laineuse d'où émergent de grandes fleurs roses ou jaunes, mais seulement après plusieurs années.
 La plante contient contient des alcaloïdes amers et toxiques tels que l'hordénine qui la protège de l'appétit des herbivores.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ariocarpus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ariocarpus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est de culture difficile et de croissance très lente.
 Elle ne supporte ni l'humidité, ni l'humus dans le sol. Elle exige un sol léger avec du gravier, du sable et du charbon de bois pulvérisé. Elle ne supporte pas les arrosages dans la rosette, ni les excès d'arrosages. Elle profite d'arrosages en été à condition d'être dans une exposition très ensoleillée. Elle a besoin d'un long repos hivernal totalement au sec avec une température de l'ordre de 12 °C.
